--- a/Cd Calculations - with success rate.xlsx
+++ b/Cd Calculations - with success rate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Animal Information" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Bootstrapping Table" sheetId="1" r:id="rId4"/>
     <sheet name="CFD Table" sheetId="5" r:id="rId5"/>
     <sheet name="CFD Table Stats" sheetId="7" r:id="rId6"/>
+    <sheet name="Success" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t xml:space="preserve">Number of Good Trials </t>
   </si>
@@ -1032,77 +1033,31 @@
     <t>TT02</t>
   </si>
   <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1069,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,48 +1249,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1704,12 +1621,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2129,38 +2048,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2752,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U49"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:H39"/>
+    <sheetView topLeftCell="B1" zoomScale="117" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4364,7 +4270,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5280,7 +5186,7 @@
   <dimension ref="C4:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5808,68 +5714,328 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="F1" s="151" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="153" t="s">
+      <c r="G1" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="154">
+      <c r="B2" s="78">
         <v>2.915</v>
       </c>
-      <c r="C2" s="155">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="C2" s="79">
+        <v>7.5900000000000004E-3</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="80">
+        <v>14.9</v>
+      </c>
+      <c r="F2" s="80">
+        <v>49.764000000000003</v>
+      </c>
+      <c r="G2" s="80">
+        <v>102.36499999999999</v>
+      </c>
+      <c r="H2" s="80">
+        <v>177.20400000000001</v>
+      </c>
+      <c r="I2" s="80">
+        <v>272</v>
+      </c>
+      <c r="J2" s="80">
+        <v>387.04399999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="157">
+      <c r="B3" s="58">
         <v>2.9390000000000001</v>
       </c>
-      <c r="C3" s="158">
+      <c r="C3" s="60">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="159" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="71">
+        <v>15.6068</v>
+      </c>
+      <c r="F3" s="71">
+        <v>52.612258999999995</v>
+      </c>
+      <c r="G3" s="71">
+        <v>108.95483954690133</v>
+      </c>
+      <c r="H3" s="71">
+        <v>188.56983</v>
+      </c>
+      <c r="I3" s="71">
+        <v>290.20830700000005</v>
+      </c>
+      <c r="J3" s="71">
+        <v>412.48209099999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="157">
+      <c r="B4" s="58">
         <v>2.9830000000000001</v>
       </c>
-      <c r="C4" s="158">
+      <c r="C4" s="60">
         <v>1.2699999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="160" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="71">
+        <v>22.462523000000001</v>
+      </c>
+      <c r="F4" s="71">
+        <v>81.590919999999997</v>
+      </c>
+      <c r="G4" s="71">
+        <v>175.83100000000002</v>
+      </c>
+      <c r="H4" s="71">
+        <v>308.5752</v>
+      </c>
+      <c r="I4" s="71">
+        <v>475.2473</v>
+      </c>
+      <c r="J4" s="71">
+        <v>686.05770000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="161">
-        <v>3.0289999999999999</v>
-      </c>
-      <c r="C5" s="162">
-        <v>1.9099999999999999E-2</v>
-      </c>
+      <c r="B5" s="67">
+        <v>3.0287999999999999</v>
+      </c>
+      <c r="C5" s="66">
+        <v>1.9120000000000002E-2</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="72">
+        <v>32.25</v>
+      </c>
+      <c r="F5" s="72">
+        <v>122.33</v>
+      </c>
+      <c r="G5" s="72">
+        <v>267.83999999999997</v>
+      </c>
+      <c r="H5" s="72">
+        <v>472.16</v>
+      </c>
+      <c r="I5" s="72">
+        <v>734.52</v>
+      </c>
+      <c r="J5" s="72">
+        <v>1053.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="152">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="153">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">C3/D3</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="153">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="154">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="155">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="155">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="155">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
